--- a/S4/Decisions&Uncertainty_II.xlsx
+++ b/S4/Decisions&Uncertainty_II.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurmorris/ACCT3210/S4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57129B7-F350-424A-80DA-4A0C3E836D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7101D5B-ADEA-364B-B452-21D1C1724B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" activeTab="4" xr2:uid="{E5649930-828F-E940-AF00-503B4B858DD3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{E5649930-828F-E940-AF00-503B4B858DD3}"/>
   </bookViews>
   <sheets>
     <sheet name="CVP" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="138">
   <si>
     <t>What is contribution margin? Why do we care?</t>
   </si>
@@ -392,6 +392,12 @@
     <t>Option 1:</t>
   </si>
   <si>
+    <t>Option 2:</t>
+  </si>
+  <si>
+    <t>Option 3:</t>
+  </si>
+  <si>
     <t>What if the costs change?</t>
   </si>
   <si>
@@ -420,13 +426,76 @@
   </si>
   <si>
     <t>What is the MOS% at each of these TOI?</t>
+  </si>
+  <si>
+    <t>Volume required to earn the following TOI:</t>
+  </si>
+  <si>
+    <t>&lt;--- Infinite BE points, no TOI points</t>
+  </si>
+  <si>
+    <t>Operating Leverage:</t>
+  </si>
+  <si>
+    <t>The risk-return tradeoff across alterantive cost structures.</t>
+  </si>
+  <si>
+    <t>The risk-return tradeoff across alternative cost structures.</t>
+  </si>
+  <si>
+    <t>The effect that fixed costs have on changes in operating income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High FC --&gt; High OL </t>
+  </si>
+  <si>
+    <t>DOL = CM / OI</t>
+  </si>
+  <si>
+    <t>The rate at which CM gets turned into OI</t>
+  </si>
+  <si>
+    <t>DOL</t>
+  </si>
+  <si>
+    <t>Two types of "risk": Volatility and Pr(Loss)</t>
+  </si>
+  <si>
+    <t>Lets see this graphically:</t>
+  </si>
+  <si>
+    <t>Sales Volume</t>
+  </si>
+  <si>
+    <t>OI=CM-FC</t>
+  </si>
+  <si>
+    <t>OI=CM/u*U-FC</t>
+  </si>
+  <si>
+    <t>Slope=CM/u</t>
+  </si>
+  <si>
+    <t>Low FC, High DOL</t>
+  </si>
+  <si>
+    <t>High FC, High DOL</t>
+  </si>
+  <si>
+    <t>Med FC, Med DOL</t>
+  </si>
+  <si>
+    <t>See the Jupyter Notebook</t>
+  </si>
+  <si>
+    <t>Sales Vol:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -511,6 +580,22 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -735,7 +820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -787,6 +872,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2101,6 +2209,1823 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>OI</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by Vol</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'L2'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Option 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'L2'!$C$36:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'L2'!$C$37:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F82-5A4A-BE3A-500F89A51E2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'L2'!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Option 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'L2'!$C$36:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'L2'!$C$38:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F82-5A4A-BE3A-500F89A51E2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'L2'!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Option 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'L2'!$C$36:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'L2'!$C$39:$J$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2F82-5A4A-BE3A-500F89A51E2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1641630384"/>
+        <c:axId val="1622889104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1641630384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1622889104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1622889104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641630384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'L1'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Option 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'L1'!$C$36:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'L1'!$C$37:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C969-EF4D-B7D3-24693BA54E4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'L1'!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Option 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'L1'!$C$36:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'L1'!$C$38:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C969-EF4D-B7D3-24693BA54E4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'L1'!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Option 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'L1'!$C$36:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'L1'!$C$39:$J$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C969-EF4D-B7D3-24693BA54E4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1637385792"/>
+        <c:axId val="1637320272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1637385792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1637320272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1637320272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1637385792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>OI and Units</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Sold</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'L3'!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Option 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'L3'!$C$36:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'L3'!$C$37:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFA8-7941-B787-38F9DC16FEEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'L3'!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Option 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'L3'!$C$36:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'L3'!$C$38:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FFA8-7941-B787-38F9DC16FEEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'L3'!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Option 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'L3'!$C$36:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'L3'!$C$39:$J$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FFA8-7941-B787-38F9DC16FEEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1668788464"/>
+        <c:axId val="1668908768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1668788464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1668908768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1668908768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1668788464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2181,6 +4106,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2685,6 +4730,1515 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3260,6 +6814,129 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>111881</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>541262</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4908A61-1916-D946-8259-50DC7939D15B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>563563</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>40392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>182563</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>49387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C37A4EB-5ADB-4D48-9DCB-D043E9033D13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>124113</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>40409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>568613</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>3463</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B9B035A-40BB-9742-9ADC-CBE0B8C7133A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4608,8 +8285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D8F15B-0EE5-0246-9CB2-4D43FBCA02E0}">
   <dimension ref="A1:O112"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView topLeftCell="A71" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5137,12 +8814,12 @@
     </row>
     <row r="56" spans="1:11" ht="26" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -5162,7 +8839,7 @@
       </c>
       <c r="G61" s="7"/>
       <c r="H61" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5598,7 +9275,7 @@
     </row>
     <row r="73" spans="1:15" ht="26" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
@@ -5608,24 +9285,24 @@
     </row>
     <row r="75" spans="1:15" ht="26" x14ac:dyDescent="0.3">
       <c r="D75" s="17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L75" s="17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D76" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H76" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L76" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6216,241 +9893,184 @@
       </c>
     </row>
     <row r="88" spans="1:15" ht="26" x14ac:dyDescent="0.3">
-      <c r="A88" s="8" t="s">
-        <v>96</v>
-      </c>
+      <c r="A88" s="49"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>97</v>
-      </c>
-      <c r="C90" t="s">
-        <v>31</v>
-      </c>
-      <c r="D90" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>98</v>
-      </c>
-      <c r="C91">
-        <v>200</v>
-      </c>
-      <c r="D91">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B92" s="38">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>100</v>
-      </c>
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" s="50"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A94" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94" s="31">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B95" s="36">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="B97" s="38">
-        <v>0.25</v>
-      </c>
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" s="24"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" s="24"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="24"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="27">
-        <v>0</v>
-      </c>
-      <c r="E99" s="24">
-        <v>1200</v>
-      </c>
-      <c r="F99" s="24">
-        <v>1600</v>
-      </c>
-      <c r="G99" s="7">
-        <v>2000</v>
-      </c>
+      <c r="A98" s="25"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="24"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>2000</v>
-      </c>
-      <c r="B100">
-        <v>100</v>
-      </c>
-      <c r="C100" s="24">
-        <f>$F$60-B100</f>
-        <v>100</v>
-      </c>
-      <c r="D100" s="29">
-        <f>$A100/$C100</f>
-        <v>20</v>
-      </c>
-      <c r="E100" s="30">
-        <f>($A100+E$62)/$C100</f>
-        <v>32</v>
-      </c>
-      <c r="F100" s="30">
-        <f t="shared" ref="F100:G102" si="24">($A100+F$62)/$C100</f>
-        <v>36</v>
-      </c>
-      <c r="G100" s="31">
-        <f t="shared" si="24"/>
-        <v>40</v>
-      </c>
+      <c r="A100" s="24"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>2000</v>
-      </c>
-      <c r="B101">
-        <v>120</v>
-      </c>
-      <c r="C101" s="24">
-        <f t="shared" ref="C101:C102" si="25">$F$60-B101</f>
-        <v>80</v>
-      </c>
-      <c r="D101" s="32">
-        <f t="shared" ref="D101:D102" si="26">$A101/$C101</f>
-        <v>25</v>
-      </c>
-      <c r="E101" s="24">
-        <f t="shared" ref="E101:E102" si="27">($A101+E$62)/$C101</f>
-        <v>40</v>
-      </c>
-      <c r="F101" s="24">
-        <f t="shared" si="24"/>
-        <v>45</v>
-      </c>
-      <c r="G101" s="33">
-        <f t="shared" si="24"/>
-        <v>50</v>
-      </c>
+      <c r="A101" s="24"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
-        <v>2000</v>
-      </c>
-      <c r="B102" s="3">
-        <v>150</v>
-      </c>
-      <c r="C102" s="3">
-        <f t="shared" si="25"/>
-        <v>50</v>
-      </c>
-      <c r="D102" s="32">
-        <f t="shared" si="26"/>
-        <v>40</v>
-      </c>
-      <c r="E102" s="24">
-        <f t="shared" si="27"/>
-        <v>64</v>
-      </c>
-      <c r="F102" s="24">
-        <f t="shared" si="24"/>
-        <v>72</v>
-      </c>
-      <c r="G102" s="33">
-        <f t="shared" si="24"/>
-        <v>80</v>
-      </c>
+      <c r="A102" s="24"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="24"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>100</v>
-      </c>
+      <c r="A104" s="24"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="5">
-        <v>800</v>
-      </c>
-      <c r="B105" s="5">
-        <f>B100+($B$95*$F$60)</f>
-        <v>130</v>
-      </c>
-      <c r="C105" s="5">
-        <f>F60-$B$105</f>
-        <v>70</v>
-      </c>
-      <c r="D105" s="27">
-        <f>A105/C105</f>
-        <v>11.428571428571429</v>
-      </c>
+      <c r="A105" s="24"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>800</v>
-      </c>
-      <c r="B106">
-        <f t="shared" ref="B106:B107" si="28">B101+($B$95*$F$60)</f>
-        <v>150</v>
-      </c>
-      <c r="C106" s="24">
-        <f>$F$60-B106</f>
-        <v>50</v>
-      </c>
-      <c r="D106" s="27">
-        <f t="shared" ref="D106:D107" si="29">A106/C106</f>
-        <v>16</v>
-      </c>
+      <c r="A106" s="24"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
-        <v>800</v>
-      </c>
-      <c r="B107" s="3">
-        <f t="shared" si="28"/>
-        <v>180</v>
-      </c>
-      <c r="C107" s="3">
-        <f>$F$60-B107</f>
-        <v>20</v>
-      </c>
-      <c r="D107" s="27">
-        <f t="shared" si="29"/>
-        <v>40</v>
-      </c>
+      <c r="A107" s="24"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
@@ -6463,14 +10083,14 @@
       </c>
       <c r="B110" s="5">
         <f>B100+($B$97*$F$60)</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C110" s="5">
         <f>$F$60-B110</f>
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D110" s="27">
-        <f t="shared" ref="D110:D112" si="30">A110/C110</f>
+        <f t="shared" ref="D110:D112" si="24">A110/C110</f>
         <v>0</v>
       </c>
     </row>
@@ -6479,15 +10099,15 @@
         <v>0</v>
       </c>
       <c r="B111">
-        <f t="shared" ref="B111:B112" si="31">B101+($B$97*$F$60)</f>
-        <v>170</v>
+        <f t="shared" ref="B111:B112" si="25">B101+($B$97*$F$60)</f>
+        <v>0</v>
       </c>
       <c r="C111">
-        <f t="shared" ref="C111:C112" si="32">$F$60-B111</f>
-        <v>30</v>
+        <f t="shared" ref="C111:C112" si="26">$F$60-B111</f>
+        <v>200</v>
       </c>
       <c r="D111" s="27">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -6496,16 +10116,16 @@
         <v>0</v>
       </c>
       <c r="B112" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="C112" s="3">
+        <f t="shared" si="26"/>
         <v>200</v>
       </c>
-      <c r="C112" s="3">
-        <f t="shared" si="32"/>
+      <c r="D112" s="27">
+        <f t="shared" si="24"/>
         <v>0</v>
-      </c>
-      <c r="D112" s="27" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -6515,38 +10135,2353 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5FC178-C73F-824D-AB36-556192F34123}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A41" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="38">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="31">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="36">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="38">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1200</v>
+      </c>
+      <c r="F12">
+        <v>1600</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f>$B$5</f>
+        <v>2000</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13" s="24">
+        <f>$B$2-B13</f>
+        <v>100</v>
+      </c>
+      <c r="D13" s="29">
+        <f>A13/C13</f>
+        <v>20</v>
+      </c>
+      <c r="E13" s="30">
+        <f>(E$12+$A13)/$C13</f>
+        <v>32</v>
+      </c>
+      <c r="F13" s="30">
+        <f t="shared" ref="F13:G15" si="0">(F$12+$A13)/$C13</f>
+        <v>36</v>
+      </c>
+      <c r="G13" s="31">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" ref="A14:A15" si="1">$B$5</f>
+        <v>2000</v>
+      </c>
+      <c r="B14" s="12">
+        <v>120</v>
+      </c>
+      <c r="C14" s="24">
+        <f t="shared" ref="C14:C15" si="2">$B$2-B14</f>
+        <v>80</v>
+      </c>
+      <c r="D14" s="32">
+        <f t="shared" ref="D14:D15" si="3">A14/C14</f>
+        <v>25</v>
+      </c>
+      <c r="E14" s="24">
+        <f t="shared" ref="E14:E15" si="4">(E$12+$A14)/$C14</f>
+        <v>40</v>
+      </c>
+      <c r="F14" s="24">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G14" s="33">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="B15" s="24">
+        <v>150</v>
+      </c>
+      <c r="C15" s="24">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D15" s="34">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="E15" s="35">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="F15" s="35">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="G15" s="36">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1200</v>
+      </c>
+      <c r="F17">
+        <v>1600</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <f>$B$7</f>
+        <v>800</v>
+      </c>
+      <c r="B18">
+        <f>B13+($B$2*$B$8)</f>
+        <v>130</v>
+      </c>
+      <c r="C18" s="7">
+        <f>$B$2-B18</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" ref="A19:A20" si="5">$B$7</f>
+        <v>800</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:B20" si="6">B14+($B$2*$B$8)</f>
+        <v>150</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" ref="C19:C20" si="7">$B$2-B19</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="6"/>
+        <v>180</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="27">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1200</v>
+      </c>
+      <c r="F22">
+        <v>1600</v>
+      </c>
+      <c r="G22" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <f>B13+($B$10*$B$2)</f>
+        <v>150</v>
+      </c>
+      <c r="C23">
+        <f>$B$2-B23</f>
+        <v>50</v>
+      </c>
+      <c r="D23" s="29">
+        <f>A23/C23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="30">
+        <f>(E$22+A$23)/C23</f>
+        <v>24</v>
+      </c>
+      <c r="F23" s="30">
+        <f>($F$22+A23)/C23</f>
+        <v>32</v>
+      </c>
+      <c r="G23" s="31">
+        <f>($G$22+A23)/C23</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:B25" si="8">B14+($B$10*$B$2)</f>
+        <v>170</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:C25" si="9">$B$2-B24</f>
+        <v>30</v>
+      </c>
+      <c r="D24" s="32">
+        <f t="shared" ref="D24:D25" si="10">A24/C24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="24">
+        <f t="shared" ref="E24:E25" si="11">(E$22+A$23)/C24</f>
+        <v>40</v>
+      </c>
+      <c r="F24" s="24">
+        <f t="shared" ref="F24:F25" si="12">($F$22+A24)/C24</f>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="G24" s="33">
+        <f t="shared" ref="G24:G25" si="13">($G$22+A24)/C24</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="34" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="35" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="35" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="36" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f>C36+10</f>
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:J36" si="14">D36+10</f>
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="14"/>
+        <v>50</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37">
+        <f>(C$36*$E$3)-(C$36*$E$4)-$B$5</f>
+        <v>-2000</v>
+      </c>
+      <c r="D37">
+        <f>(D$36*$E$3)-(D$36*$E$4)-$B$5</f>
+        <v>-1200</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="D37:J37" si="15">(E$36*$E$3)-(E$36*$E$4)-$B$5</f>
+        <v>-400</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="15"/>
+        <v>400</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="15"/>
+        <v>1200</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="15"/>
+        <v>2000</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="15"/>
+        <v>2800</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="15"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="52"/>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <f>(C$36*$E$3)-(C$36*$B$19)-$A$19</f>
+        <v>-800</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:J38" si="16">(D$36*$E$3)-(D$36*$B$19)-$A$19</f>
+        <v>-300</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="16"/>
+        <v>200</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="16"/>
+        <v>700</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="16"/>
+        <v>1200</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="16"/>
+        <v>1700</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="16"/>
+        <v>2200</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="16"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="52"/>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39">
+        <f>(C$36*$E$3)-(C$36*$B$24)-$A$24</f>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:J39" si="17">(D$36*$E$3)-(D$36*$B$24)-$A$24</f>
+        <v>300</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="17"/>
+        <v>600</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="17"/>
+        <v>900</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="17"/>
+        <v>1200</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="17"/>
+        <v>1500</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="17"/>
+        <v>1800</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="17"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="53"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44">
+        <f>C14</f>
+        <v>80</v>
+      </c>
+      <c r="C44">
+        <f>$B$42*B44</f>
+        <v>3200</v>
+      </c>
+      <c r="D44">
+        <f>G37</f>
+        <v>1200</v>
+      </c>
+      <c r="E44">
+        <f>C44/D44</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45">
+        <f>C19</f>
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:C46" si="18">$B$42*B45</f>
+        <v>2000</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:D46" si="19">G38</f>
+        <v>1200</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45:E46" si="20">C45/D45</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46">
+        <f>C24</f>
+        <v>30</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="18"/>
+        <v>1200</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="19"/>
+        <v>1200</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50">
+        <f>B44</f>
+        <v>80</v>
+      </c>
+      <c r="C50">
+        <f>$B$48*B50</f>
+        <v>4000</v>
+      </c>
+      <c r="D50">
+        <f>H37</f>
+        <v>2000</v>
+      </c>
+      <c r="E50">
+        <f>C50/D50</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51:B52" si="21">B45</f>
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:C52" si="22">$B$48*B51</f>
+        <v>2500</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51:D52" si="23">H38</f>
+        <v>1700</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51:E52" si="24">C51/D51</f>
+        <v>1.4705882352941178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="21"/>
+        <v>30</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="22"/>
+        <v>1500</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="23"/>
+        <v>1500</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A37:A39"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD15E374-A5B1-7045-98ED-48EC862ECDCA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A24" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="38">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="31">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="36">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="38">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1200</v>
+      </c>
+      <c r="F12">
+        <v>1600</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2000</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <f>$E$3-B13</f>
+        <v>100</v>
+      </c>
+      <c r="D13" s="29">
+        <f>$A13/$C13</f>
+        <v>20</v>
+      </c>
+      <c r="E13" s="30">
+        <f>($A13+E$12)/$C13</f>
+        <v>32</v>
+      </c>
+      <c r="F13" s="30">
+        <f t="shared" ref="F13:G13" si="0">($A13+F$12)/$C13</f>
+        <v>36</v>
+      </c>
+      <c r="G13" s="30">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>2000</v>
+      </c>
+      <c r="B14" s="13">
+        <v>120</v>
+      </c>
+      <c r="C14" s="13">
+        <f t="shared" ref="C14:C15" si="1">$E$3-B14</f>
+        <v>80</v>
+      </c>
+      <c r="D14" s="54">
+        <f t="shared" ref="D14:D15" si="2">$A14/$C14</f>
+        <v>25</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" ref="E14:G15" si="3">($A14+E$12)/$C14</f>
+        <v>40</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B15" s="3">
+        <v>150</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D15" s="34">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="E15" s="35">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="F15" s="56">
+        <f>($A15+F$72)/$C15</f>
+        <v>40</v>
+      </c>
+      <c r="G15" s="57">
+        <f>($A15+G$72)/$C15</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1200</v>
+      </c>
+      <c r="F17">
+        <v>1600</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>800</v>
+      </c>
+      <c r="B18" s="5">
+        <f>B13+($E$3*$B$8)</f>
+        <v>130</v>
+      </c>
+      <c r="C18" s="5">
+        <f>$E$3-B18</f>
+        <v>70</v>
+      </c>
+      <c r="D18" s="29">
+        <f>$A18/$C18</f>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="E18" s="30">
+        <f>($A18+E$12)/$C18</f>
+        <v>28.571428571428573</v>
+      </c>
+      <c r="F18" s="30">
+        <f>($A18+F$17)/$C18</f>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="G18" s="31">
+        <f>($A18+G$17)/$C18</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>800</v>
+      </c>
+      <c r="B19" s="13">
+        <f t="shared" ref="B19:B20" si="4">B14+($E$3*$B$8)</f>
+        <v>150</v>
+      </c>
+      <c r="C19" s="13">
+        <f t="shared" ref="C19:C20" si="5">$E$3-B19</f>
+        <v>50</v>
+      </c>
+      <c r="D19" s="54">
+        <f t="shared" ref="D19:D20" si="6">$A19/$C19</f>
+        <v>16</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" ref="E19:E20" si="7">($A19+E$12)/$C19</f>
+        <v>40</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" ref="F19:F20" si="8">($A19+F$17)/$C19</f>
+        <v>48</v>
+      </c>
+      <c r="G19" s="55">
+        <f>($A19+G$17)/$C19</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>800</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="D20" s="34">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="E20" s="35">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="F20" s="35">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="G20" s="36">
+        <f>($A20+G$17)/$C20</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="27">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1200</v>
+      </c>
+      <c r="F22">
+        <v>1600</v>
+      </c>
+      <c r="G22" s="7">
+        <v>2000</v>
+      </c>
+      <c r="P22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>0</v>
+      </c>
+      <c r="B23" s="5">
+        <f>B13+($B$10*$E$3)</f>
+        <v>150</v>
+      </c>
+      <c r="C23" s="5">
+        <f>$E$3-B23</f>
+        <v>50</v>
+      </c>
+      <c r="D23" s="29">
+        <f>$A23/$C23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="30">
+        <f>($A23+E$22)/$C23</f>
+        <v>24</v>
+      </c>
+      <c r="F23" s="30">
+        <f t="shared" ref="F23:G24" si="9">($A23+F$22)/$C23</f>
+        <v>32</v>
+      </c>
+      <c r="G23" s="31">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="P23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>0</v>
+      </c>
+      <c r="B24" s="13">
+        <f t="shared" ref="B24:B25" si="10">B14+($B$10*$E$3)</f>
+        <v>170</v>
+      </c>
+      <c r="C24" s="13">
+        <f t="shared" ref="C24:C25" si="11">$E$3-B24</f>
+        <v>30</v>
+      </c>
+      <c r="D24" s="54">
+        <f t="shared" ref="D24:D25" si="12">$A24/$C24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="13">
+        <f>($A24+E$22)/$C24</f>
+        <v>40</v>
+      </c>
+      <c r="F24" s="59">
+        <f t="shared" si="9"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="G24" s="58">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="P24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="60" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="61" t="e">
+        <f>($A25+E$22)/$C25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="61" t="e">
+        <f>($A25+F$22)/$C25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="62" t="e">
+        <f>($A25+G$22)/$C25</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f>C36+10</f>
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:J36" si="13">D36+10</f>
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37">
+        <f>(C$36*$E$3)-(C$36*$E$4)-$B$5</f>
+        <v>-2000</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:J37" si="14">(D$36*$E$3)-(D$36*$E$4)-$B$5</f>
+        <v>-1200</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="14"/>
+        <v>-400</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="14"/>
+        <v>1200</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="14"/>
+        <v>2000</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="14"/>
+        <v>2800</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="14"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="52"/>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <f>(C$36*$E$3)-(C$36*$B$19)-$A$19</f>
+        <v>-800</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:J38" si="15">(D$36*$E$3)-(D$36*$B$19)-$A$19</f>
+        <v>-300</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="15"/>
+        <v>700</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="15"/>
+        <v>1200</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="15"/>
+        <v>1700</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="15"/>
+        <v>2200</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="15"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="52"/>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39">
+        <f>(C$36*$E$3)-(C$36*$B$24)-$A$24</f>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:J39" si="16">(D$36*$E$3)-(D$36*$B$24)-$A$24</f>
+        <v>300</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="16"/>
+        <v>600</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="16"/>
+        <v>900</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="16"/>
+        <v>1200</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="16"/>
+        <v>1500</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="16"/>
+        <v>1800</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="16"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44">
+        <v>40</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46">
+        <f>$C$14</f>
+        <v>80</v>
+      </c>
+      <c r="C46">
+        <f>B46*$B$44</f>
+        <v>3200</v>
+      </c>
+      <c r="D46">
+        <f>G37</f>
+        <v>1200</v>
+      </c>
+      <c r="E46" s="64">
+        <f>C46/D46</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47">
+        <f>$C$19</f>
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:C48" si="17">B47*$B$44</f>
+        <v>2000</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47:D48" si="18">G38</f>
+        <v>1200</v>
+      </c>
+      <c r="E47" s="64">
+        <f t="shared" ref="E47:E48" si="19">C47/D47</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48">
+        <f>$C$24</f>
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="17"/>
+        <v>1200</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="18"/>
+        <v>1200</v>
+      </c>
+      <c r="E48" s="64">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="12">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52">
+        <f>$C$14</f>
+        <v>80</v>
+      </c>
+      <c r="C52">
+        <f>$H$36*B52</f>
+        <v>4000</v>
+      </c>
+      <c r="D52">
+        <f>H37</f>
+        <v>2000</v>
+      </c>
+      <c r="E52" s="64">
+        <f>C52/D52</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53">
+        <f>$C$19</f>
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:C54" si="20">$H$36*B53</f>
+        <v>2500</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:D54" si="21">H38</f>
+        <v>1700</v>
+      </c>
+      <c r="E53" s="64">
+        <f t="shared" ref="E53:E54" si="22">C53/D53</f>
+        <v>1.4705882352941178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54">
+        <f>$C$24</f>
+        <v>30</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="20"/>
+        <v>1500</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="21"/>
+        <v>1500</v>
+      </c>
+      <c r="E54" s="64">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A37:A39"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C24D7B-0C73-4E4A-9875-DF8610B3A6B9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="27"/>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="38">
+        <v>2000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="31">
+        <v>800</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="36">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1200</v>
+      </c>
+      <c r="F12">
+        <v>1600</v>
+      </c>
+      <c r="G12" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2000</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <f>$E$3-B13</f>
+        <v>100</v>
+      </c>
+      <c r="D13" s="29">
+        <f>$A13/$C13</f>
+        <v>20</v>
+      </c>
+      <c r="E13" s="30">
+        <f>($A13+E$12)/$C13</f>
+        <v>32</v>
+      </c>
+      <c r="F13" s="30">
+        <f t="shared" ref="F13:G13" si="0">($A13+F$12)/$C13</f>
+        <v>36</v>
+      </c>
+      <c r="G13" s="30">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>2000</v>
+      </c>
+      <c r="B14" s="12">
+        <v>120</v>
+      </c>
+      <c r="C14" s="12">
+        <f t="shared" ref="C14:C15" si="1">$E$3-B14</f>
+        <v>80</v>
+      </c>
+      <c r="D14" s="65">
+        <f t="shared" ref="D14:D15" si="2">$A14/$C14</f>
+        <v>25</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" ref="E14:G15" si="3">($A14+E$12)/$C14</f>
+        <v>40</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B15" s="3">
+        <v>150</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D15" s="34">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="E15" s="35">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="F15" s="35">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="G15" s="35">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1200</v>
+      </c>
+      <c r="F17">
+        <v>1600</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>800</v>
+      </c>
+      <c r="B18" s="5">
+        <f>B13+($E$3*$B$8)</f>
+        <v>130</v>
+      </c>
+      <c r="C18" s="5">
+        <f>$E$3-B18</f>
+        <v>70</v>
+      </c>
+      <c r="D18" s="29">
+        <f>$A18/$C18</f>
+        <v>11.428571428571429</v>
+      </c>
+      <c r="E18" s="30">
+        <f>($A18+E$12)/$C18</f>
+        <v>28.571428571428573</v>
+      </c>
+      <c r="F18" s="30">
+        <f>($A18+F$17)/$C18</f>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="G18" s="31">
+        <f>($A18+G$17)/$C18</f>
+        <v>40</v>
+      </c>
+      <c r="L18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>800</v>
+      </c>
+      <c r="B19" s="12">
+        <f t="shared" ref="B19:B20" si="4">B14+($E$3*$B$8)</f>
+        <v>150</v>
+      </c>
+      <c r="C19" s="12">
+        <f t="shared" ref="C19:C20" si="5">$E$3-B19</f>
+        <v>50</v>
+      </c>
+      <c r="D19" s="65">
+        <f t="shared" ref="D19:D20" si="6">$A19/$C19</f>
+        <v>16</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" ref="E19:E20" si="7">($A19+E$12)/$C19</f>
+        <v>40</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" ref="F19:F20" si="8">($A19+F$17)/$C19</f>
+        <v>48</v>
+      </c>
+      <c r="G19" s="66">
+        <f>($A19+G$17)/$C19</f>
+        <v>56</v>
+      </c>
+      <c r="L19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>800</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="D20" s="34">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="E20" s="35">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="F20" s="35">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="G20" s="36">
+        <f>($A20+G$17)/$C20</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="27">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1200</v>
+      </c>
+      <c r="F22">
+        <v>1600</v>
+      </c>
+      <c r="G22" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>0</v>
+      </c>
+      <c r="B23" s="5">
+        <f>B13+($B$10*$E$3)</f>
+        <v>150</v>
+      </c>
+      <c r="C23" s="5">
+        <f>$E$3-B23</f>
+        <v>50</v>
+      </c>
+      <c r="D23" s="29">
+        <f>$A23/$C23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="30">
+        <f>($A23+E$22)/$C23</f>
+        <v>24</v>
+      </c>
+      <c r="F23" s="30">
+        <f t="shared" ref="F23:G24" si="9">($A23+F$22)/$C23</f>
+        <v>32</v>
+      </c>
+      <c r="G23" s="31">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <v>0</v>
+      </c>
+      <c r="B24" s="12">
+        <f t="shared" ref="B24:B25" si="10">B14+($B$10*$E$3)</f>
+        <v>170</v>
+      </c>
+      <c r="C24" s="12">
+        <f t="shared" ref="C24:C25" si="11">$E$3-B24</f>
+        <v>30</v>
+      </c>
+      <c r="D24" s="65">
+        <f t="shared" ref="D24:D25" si="12">$A24/$C24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
+        <f>($A24+E$22)/$C24</f>
+        <v>40</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="9"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="G24" s="66">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="60" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="61" t="e">
+        <f>($A25+E$22)/$C25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="61" t="e">
+        <f>($A25+F$22)/$C25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="62" t="e">
+        <f>($A25+G$22)/$C25</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" ht="26" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f>C36+10</f>
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:J36" si="13">D36+10</f>
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37">
+        <f>(C$36*$E$3)-(C$36*$E$4)-$B$5</f>
+        <v>-2000</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:J37" si="14">(D$36*$E$3)-(D$36*$E$4)-$B$5</f>
+        <v>-1200</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="14"/>
+        <v>-400</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="14"/>
+        <v>1200</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="14"/>
+        <v>2000</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="14"/>
+        <v>2800</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="14"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="52"/>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <f>(C$36*$E$3)-(C$36*$B$19)-$A$19</f>
+        <v>-800</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:J38" si="15">(D$36*$E$3)-(D$36*$B$19)-$A$19</f>
+        <v>-300</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="15"/>
+        <v>200</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="15"/>
+        <v>700</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="15"/>
+        <v>1200</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="15"/>
+        <v>1700</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="15"/>
+        <v>2200</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="15"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="52"/>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39">
+        <f>(C$36*$E$3)-(C$36*$B$24)-$A$24</f>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:J39" si="16">(D$36*$E$3)-(D$36*$B$24)-$A$24</f>
+        <v>300</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="16"/>
+        <v>600</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="16"/>
+        <v>900</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="16"/>
+        <v>1200</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="16"/>
+        <v>1500</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="16"/>
+        <v>1800</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="16"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="53"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46">
+        <v>80</v>
+      </c>
+      <c r="C46">
+        <f>B46*$B$44</f>
+        <v>3200</v>
+      </c>
+      <c r="D46">
+        <f>G37</f>
+        <v>1200</v>
+      </c>
+      <c r="E46">
+        <f>C46/D46</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:C48" si="17">B47*$B$44</f>
+        <v>2000</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47:D48" si="18">G38</f>
+        <v>1200</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47:E48" si="19">C47/D47</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="17"/>
+        <v>1200</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="18"/>
+        <v>1200</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52">
+        <f>$C$14</f>
+        <v>80</v>
+      </c>
+      <c r="C52">
+        <f>$H$36*B52</f>
+        <v>4000</v>
+      </c>
+      <c r="D52">
+        <f>H37</f>
+        <v>2000</v>
+      </c>
+      <c r="E52">
+        <f>C52/D52</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53">
+        <f>$C$19</f>
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:C54" si="20">$H$36*B53</f>
+        <v>2500</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:D54" si="21">H38</f>
+        <v>1700</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53:E54" si="22">C53/D53</f>
+        <v>1.4705882352941178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54">
+        <f>$C$24</f>
+        <v>30</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="20"/>
+        <v>1500</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="21"/>
+        <v>1500</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A37:A39"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>